--- a/data/original/Vechi_dat.xlsx
+++ b/data/original/Vechi_dat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/Manure_surf_resp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-KVIK/data/original/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="8_{7FBDA47F-A27B-4D96-8FEF-1537AD43F149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46295099-7929-4032-98AC-249F30FB7942}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="8_{7FBDA47F-A27B-4D96-8FEF-1537AD43F149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBCD4FAE-23DD-4565-9A2A-FA92AB7FCF64}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{7DB53CCD-A5D8-4314-929F-9E3E474E1F0F}"/>
   </bookViews>
@@ -144,10 +144,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDA875B-020F-451A-86B5-FB36A7EF2059}">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,7 +1498,7 @@
       </c>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
@@ -1522,7 +1518,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>12</v>
       </c>
@@ -1542,7 +1538,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
@@ -1562,7 +1558,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -1582,7 +1578,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -1602,7 +1598,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>12</v>
       </c>
@@ -1622,7 +1618,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>12</v>
       </c>
@@ -1642,7 +1638,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
@@ -1662,7 +1658,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
@@ -1682,7 +1678,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>13</v>
       </c>
@@ -1702,7 +1698,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -1722,7 +1718,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>13</v>
       </c>
@@ -1742,7 +1738,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
@@ -1762,7 +1758,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>13</v>
       </c>
@@ -1782,7 +1778,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
@@ -1802,7 +1798,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>13</v>
       </c>
